--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_5_parsed_output/tokens_perfect.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_5_parsed_output/tokens_perfect.xlsx
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>3</v>
